--- a/기획/시스템 기획/System_LobyScene.xlsx
+++ b/기획/시스템 기획/System_LobyScene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\UnityProject\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CDF2CA1-8BAF-4700-A275-79132F63C02B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A07E3EE-EF73-4206-8902-53EB1C0D825D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="2940" windowWidth="18825" windowHeight="9510" activeTab="3" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
   </bookViews>
   <sheets>
     <sheet name="요구 기능" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,458 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="115">
   <si>
+    <t>No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  요구 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 구조&amp;규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 레벨 표시 (인게임 레벨X)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 재화 표시 ( + 버튼으로 상점 이동 기능 구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage Scene 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitManagement Scene 전환 ( 스킨 적용, 강화 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  시퀀스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  속성/행동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유료재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text DiaAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 Dia 개수를 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Dia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭했을 때, SE 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button PlayBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, Stage Scene 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button PlusDiaBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioClip ButtonSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image PlusBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 닉네임 설정 팝업창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2) 옵션 팝업창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store Scene 전환 ( 유료 재화 구매, 스킨, 강화 가챠)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ▶ 버튼으로 적용 및 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting Panel 팝업창(볼륨 조절)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nickname 팝업창(닉네임 설정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest Scene 전환 ( 임무 진행 과정, 목록, 보상 등의 정보)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text PlayerLv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image UI_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image UI_DiaAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 설정한 닉네임을 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 레벨을 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image UI_UnitManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button UnitManagementBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text  UnitManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, Unitmanagement Scene 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ▶ 텍스트 박스로 닉네임 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ▶ 슬라이더로 볼륨 조작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerInfo Scene 전환 (닉네임, 레벨, 경험치, 룬 정보, 클리어 횟수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, PlayerInfo Scene 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, Store Scene 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image UI_Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Store</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button StoreBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅑ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image UI_Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button QuestBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, Quest Scene 로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) "지휘실"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) "보급소"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) "훈련소"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text  Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) "전투"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel Nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text NicknameGuide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"사용할 닉네임을 입력하세요"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) "닉네임은 특수문자 제외, 8자 이내로 사용"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBox Nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 박스에 유저가 직접 타이핑 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비,상점,유닛,스테이지 씬 공동 BGM 상시 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규칙/부가 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"적용"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image UI_Play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image ApplyBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 게임 실행 시, 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image NicknameBackground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image OptionBackground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, 닉네임 팝업창 종료/ 닉네임 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, 옵션 팝업창 종료/ 설정 미적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, 적용 팝업창 종료/ 설정 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image CloseBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text SE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BGM"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Volume"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slider VolumeControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slider BGMControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slider SEControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel OptionSub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image OptionSubBackground</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image UI_Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option 버튼 입력 시, 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Option 버튼 입력 시, Option 패널의 자식으로 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button PlayerInfoBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">플레이어 정보 (닉네임, 레벨 - 클릭 시, PlayerInfo Scene 전환) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buttton ApplyBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buttton OptionBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buttton CloseBtn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클릭했을 때, Option panel 팝업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AudioClip Normal_BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Lobby_Background</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">  System : </t>
     </r>
@@ -42,464 +494,12 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LobyScene</t>
+      <t>LobbyScene</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  요구 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'Loby Scene'에 필요한 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 구조&amp;규칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 레벨 표시 (인게임 레벨X)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외부 재화 표시 ( + 버튼으로 상점 이동 기능 구현)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage Scene 전환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UnitManagement Scene 전환 ( 스킨 적용, 강화 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  시퀀스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  속성/행동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유료재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text DiaAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보유 Dia 개수를 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Dia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 클릭했을 때, SE 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button PlayBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, Stage Scene 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button PlusDiaBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AudioClip ButtonSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AudioClip Loby_BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Loby_Background</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image PlusBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1) 닉네임 설정 팝업창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2) 옵션 팝업창</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store Scene 전환 ( 유료 재화 구매, 스킨, 강화 가챠)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ▶ 버튼으로 적용 및 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting Panel 팝업창(볼륨 조절)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nickname 팝업창(닉네임 설정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quest Scene 전환 ( 임무 진행 과정, 목록, 보상 등의 정보)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text PlayerLv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image UI_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image UI_DiaAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 설정한 닉네임을 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어의 레벨을 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닛 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image UI_UnitManagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button UnitManagementBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text  UnitManagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, Unitmanagement Scene 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ▶ 텍스트 박스로 닉네임 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ▶ 슬라이더로 볼륨 조작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">플레이어 정보 (닉네임, 레벨) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlayerInfo Scene 전환 (닉네임, 레벨, 경험치, 룬 정보, 클리어 횟수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, PlayerInfo Scene 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, Store Scene 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image UI_Store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text Store</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button StoreBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅑ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image UI_Quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image Quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text Quest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button QuestBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, Quest Scene 로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex) "지휘실"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex) "보급소"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex) "훈련소"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text  Play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex) "전투"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Panel Nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text Nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text NicknameGuide</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"사용할 닉네임을 입력하세요"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex) "닉네임은 특수문자 제외, 8자 이내로 사용"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextBox Nickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트 박스에 유저가 직접 타이핑 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로비,상점,유닛,스테이지 씬 공동 BGM 상시 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>규칙/부가 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buttton Apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text Apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"적용"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image UI_Play</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image ApplyBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초 게임 실행 시, 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image NicknameBackground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Panel Option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image OptionBackground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buttton Close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, 닉네임 팝업창 종료/ 닉네임 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, 옵션 팝업창 종료/ 설정 미적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, 적용 팝업창 종료/ 설정 적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image CloseBtn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text Volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text BGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text SE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SE"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"BGM"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Volume"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slider VolumeControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slider BGMControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Slider SEControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Panel OptionSub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image OptionSubBackground</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옵션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image UI_Option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buttton Option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option 버튼 입력 시, 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Option 버튼 입력 시, Option 패널의 자식으로 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클릭했을 때, Option window 팝업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button PlayerInfoBtn</t>
+    <t xml:space="preserve"> 'Lobby Scene'에 필요한 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,16 +1137,46 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1161,36 +1191,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1200,40 +1200,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1248,20 +1239,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,7 +1390,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Background</a:t>
+            <a:t>Lobby_Background</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="2000">
             <a:solidFill>
@@ -4082,7 +4082,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>LobyScene</a:t>
+            <a:t>LobbyScene</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -6470,13 +6470,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>128588</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>128588</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
@@ -6489,14 +6489,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="0"/>
-          <a:endCxn id="64" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="966788" y="6486525"/>
+          <a:off x="995363" y="6486525"/>
           <a:ext cx="0" cy="542924"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -6530,7 +6527,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>352425</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
@@ -6548,7 +6545,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="723900" y="6724650"/>
+          <a:off x="752475" y="6724650"/>
           <a:ext cx="297133" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6597,7 +6594,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -6615,7 +6612,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="7610475"/>
+          <a:off x="638175" y="7610475"/>
           <a:ext cx="333681" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6664,13 +6661,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314329</xdr:colOff>
+      <xdr:colOff>342904</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552451</xdr:colOff>
+      <xdr:colOff>581026</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -6687,7 +6684,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="123827" y="4572002"/>
+          <a:off x="152402" y="4572002"/>
           <a:ext cx="2352675" cy="238122"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -6721,13 +6718,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>128588</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -6740,14 +6737,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="64" idx="0"/>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="11907" y="4374357"/>
+          <a:off x="40482" y="4374357"/>
           <a:ext cx="2362199" cy="452437"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -6781,7 +6775,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
@@ -6799,7 +6793,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="704850" y="5419725"/>
+          <a:off x="733425" y="5419725"/>
           <a:ext cx="297133" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6848,7 +6842,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
@@ -6866,7 +6860,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1133475" y="5562600"/>
+          <a:off x="1162050" y="5562600"/>
           <a:ext cx="333681" cy="374141"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6990,7 +6984,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>240368</xdr:colOff>
+      <xdr:colOff>268943</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
@@ -7008,7 +7002,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1107143" y="4314825"/>
+          <a:off x="1135718" y="4314825"/>
           <a:ext cx="619080" cy="790986"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7213,13 +7207,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7236,7 +7230,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="866775" y="7686675"/>
+          <a:off x="895350" y="7686675"/>
           <a:ext cx="0" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7270,13 +7264,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>128588</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
+      <xdr:colOff>128588</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -7289,14 +7283,11 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="55" idx="0"/>
-          <a:endCxn id="62" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="966788" y="7734300"/>
+          <a:off x="995363" y="7734300"/>
           <a:ext cx="0" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -7446,6 +7437,130 @@
             <a:t>종료</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="연결선: 꺾임 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EE4D8E-389A-437D-AA14-1312CD47BBD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="36" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2028825" y="5133975"/>
+          <a:ext cx="3028950" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 107547"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87590</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1223798" cy="358431"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="TextBox 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E811993-05FF-4648-B85A-B7594F9912B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2325965" y="7610475"/>
+          <a:ext cx="1223798" cy="358431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" b="1"/>
+            <a:t>PlusDiaBtn </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1200" b="1"/>
+            <a:t>클릭</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7826,7 +7941,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7838,46 +7953,46 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -7893,203 +8008,203 @@
     <row r="7" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C9" s="34">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
+      <c r="D9" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C10" s="34">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+      <c r="D10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C11" s="34">
+      <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+      <c r="D11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C12" s="34">
+      <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+      <c r="D12" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="34">
+      <c r="C13" s="9">
         <v>5</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="32"/>
+      <c r="D13" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C14" s="34">
+      <c r="C14" s="9">
         <v>6</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
+      <c r="D14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C15" s="34">
+      <c r="C15" s="9">
         <v>7</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
+      <c r="D15" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C16" s="34">
+      <c r="C16" s="9">
         <v>8</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="32"/>
+      <c r="D16" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="34">
+      <c r="C17" s="9">
         <v>9</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="32"/>
+      <c r="D17" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="35">
+      <c r="C18" s="10">
         <v>10</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
+      <c r="D18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -8116,9 +8231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B49A845-E3D3-42ED-9C11-87B3D99F1D64}">
   <dimension ref="A1:S70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24:G24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8130,46 +8245,46 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -8185,80 +8300,80 @@
     <row r="7" spans="1:19" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="30"/>
+        <v>9</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="31"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
+      <c r="C9" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="46"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
     </row>
     <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="46"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="27" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="29"/>
       <c r="H10" s="27" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="33"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
+      <c r="L10" s="30"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="31"/>
+      <c r="C11" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="46"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -8266,20 +8381,20 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="39"/>
-      <c r="D12" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="32"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
@@ -8287,952 +8402,1065 @@
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="39"/>
-      <c r="D13" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="32"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
     </row>
     <row r="14" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="46"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="27" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
       <c r="G14" s="29"/>
       <c r="H14" s="27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="28"/>
-      <c r="L14" s="33"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
+      <c r="L14" s="30"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="31"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
+      <c r="C15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="46"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C16" s="39"/>
-      <c r="D16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="32"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C17" s="39"/>
-      <c r="D17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="32"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C18" s="39"/>
-      <c r="D18" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="32"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C19" s="39"/>
-      <c r="D19" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="32"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
     </row>
     <row r="20" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="46"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="29"/>
       <c r="H20" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="33"/>
+      <c r="L20" s="30"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="31"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="46"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C22" s="39"/>
-      <c r="D22" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="32"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C23" s="39"/>
-      <c r="D23" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="32"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C24" s="39"/>
-      <c r="D24" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="32"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
     </row>
     <row r="25" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="46"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="27" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
       <c r="H25" s="27" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="33"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C26" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="31"/>
+      <c r="C26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="46"/>
       <c r="N26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="39"/>
-      <c r="D27" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="32"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C28" s="39"/>
-      <c r="D28" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="32"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C29" s="39"/>
-      <c r="D29" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="32"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
     </row>
     <row r="30" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="46"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E30" s="28"/>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
       <c r="H30" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="33"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C31" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="31"/>
+      <c r="C31" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="46"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C32" s="39"/>
-      <c r="D32" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="32"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="39"/>
-      <c r="D33" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="32"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="39"/>
-      <c r="D34" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="32"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="46"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
       <c r="H35" s="27" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I35" s="28"/>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
-      <c r="L35" s="33"/>
+      <c r="L35" s="30"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="31"/>
+      <c r="C36" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="46"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="39"/>
-      <c r="D37" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="32"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="39"/>
-      <c r="D38" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="32"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="39"/>
-      <c r="D39" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="32"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="46"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="27" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E40" s="28"/>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
       <c r="H40" s="27" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I40" s="28"/>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
-      <c r="L40" s="33"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="31"/>
+      <c r="C41" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="46"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C42" s="39"/>
-      <c r="D42" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="32"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C43" s="39"/>
-      <c r="D43" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="32"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="39"/>
-      <c r="D44" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="32"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="39"/>
-      <c r="D45" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="32"/>
+        <v>53</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C46" s="39"/>
-      <c r="D46" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="32"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C47" s="39"/>
-      <c r="D47" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="32"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C48" s="39"/>
-      <c r="D48" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="32"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
     </row>
     <row r="49" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="46"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="27" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="28"/>
       <c r="G49" s="29"/>
       <c r="H49" s="27" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I49" s="28"/>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
-      <c r="L49" s="33"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C50" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="50"/>
+      <c r="C50" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="33"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C51" s="39"/>
-      <c r="D51" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="32"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
     </row>
     <row r="52" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="46"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E52" s="28"/>
       <c r="F52" s="28"/>
       <c r="G52" s="29"/>
       <c r="H52" s="27" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I52" s="28"/>
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
-      <c r="L52" s="33"/>
+      <c r="L52" s="30"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C53" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="31"/>
+      <c r="C53" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="46"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C54" s="39"/>
-      <c r="D54" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="45"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="42"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C55" s="39"/>
-      <c r="D55" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="32"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="22"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C56" s="39"/>
-      <c r="D56" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="32"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C57" s="39"/>
-      <c r="D57" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="32"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C58" s="39"/>
-      <c r="D58" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="32"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C59" s="39"/>
-      <c r="D59" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="32"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C60" s="39"/>
-      <c r="D60" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="32"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22"/>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C61" s="39"/>
-      <c r="D61" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="32"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C62" s="39"/>
-      <c r="D62" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="32"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22"/>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C63" s="39"/>
-      <c r="D63" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="32"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="22"/>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C64" s="39"/>
-      <c r="D64" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="32"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22"/>
     </row>
     <row r="65" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C65" s="39"/>
-      <c r="D65" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="32"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C66" s="39"/>
-      <c r="D66" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="32"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="39"/>
-      <c r="D67" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="32"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C68" s="39"/>
-      <c r="D68" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="45"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68" s="40"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="42"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C69" s="39"/>
-      <c r="D69" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="32"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="22"/>
     </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C70" s="46"/>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C70" s="37"/>
       <c r="D70" s="27" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E70" s="28"/>
       <c r="F70" s="28"/>
       <c r="G70" s="29"/>
       <c r="H70" s="27" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I70" s="28"/>
       <c r="J70" s="28"/>
       <c r="K70" s="28"/>
-      <c r="L70" s="33"/>
+      <c r="L70" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="A2:O3"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H70:L70"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:L66"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:L68"/>
+    <mergeCell ref="C41:C49"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="H64:L64"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="D49:G49"/>
     <mergeCell ref="D52:G52"/>
     <mergeCell ref="H52:L52"/>
     <mergeCell ref="H50:L50"/>
@@ -9257,119 +9485,6 @@
     <mergeCell ref="H54:L54"/>
     <mergeCell ref="D65:G65"/>
     <mergeCell ref="H65:L65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:L68"/>
-    <mergeCell ref="C41:C49"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="H64:L64"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="C36:C40"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="C26:C30"/>
-    <mergeCell ref="C31:C35"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H70:L70"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="A2:O3"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9381,8 +9496,8 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9394,46 +9509,46 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -9449,27 +9564,27 @@
     <row r="7" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="4:10" x14ac:dyDescent="0.3">
       <c r="J34" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="4:10" x14ac:dyDescent="0.3">
       <c r="J47" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J49" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -9487,8 +9602,8 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9500,46 +9615,46 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
